--- a/report/Results.xlsx
+++ b/report/Results.xlsx
@@ -539,28 +539,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -866,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,25 +876,27 @@
     <col min="4" max="4" width="45" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="95" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="55.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="149.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27" t="s">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="21" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="24" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -929,7 +931,7 @@
       <c r="J2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="22" t="s">
         <v>29</v>
       </c>
     </row>
